--- a/sheet.xlsx
+++ b/sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\системное программирование\ЛР14\LR14\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{114AFE80-1781-49DC-962F-887267168207}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DFAA9E9-A504-415B-96A2-167DB76D0190}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1810" yWindow="1640" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -342,7 +342,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -376,7 +376,7 @@
         <v>1</v>
       </c>
       <c r="J1" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -425,7 +425,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F3" s="2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>9</v>
       </c>
       <c r="E4" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F4" s="2">
         <v>0</v>
